--- a/data/spreadsheet/MasterPayrollTemplate.xlsx
+++ b/data/spreadsheet/MasterPayrollTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insulpro\system\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB630E0-DD04-48C2-AE43-BEF29E4D6DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA2B01A-C602-4503-90D3-3CC061EB38F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{69CE04B0-AD31-4867-A22D-2E65E491CE4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69CE04B0-AD31-4867-A22D-2E65E491CE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -92,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,31 +440,40 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/spreadsheet/MasterPayrollTemplate.xlsx
+++ b/data/spreadsheet/MasterPayrollTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA2B01A-C602-4503-90D3-3CC061EB38F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E7F4A-2481-40E8-B038-AFFF8CFF9D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69CE04B0-AD31-4867-A22D-2E65E491CE4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Split</t>
+  </si>
+  <si>
+    <t>Job Total For Employee</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFC711B-2A81-4081-B8BE-9E270C5E9A04}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,9 +455,10 @@
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,6 +479,9 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheet/MasterPayrollTemplate.xlsx
+++ b/data/spreadsheet/MasterPayrollTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E7F4A-2481-40E8-B038-AFFF8CFF9D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681603B9-9657-4C53-BA7D-1007C15BC1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69CE04B0-AD31-4867-A22D-2E65E491CE4F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Split</t>
   </si>
   <si>
-    <t>Job Total For Employee</t>
+    <t>Qty Split</t>
   </si>
 </sst>
 </file>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFC711B-2A81-4081-B8BE-9E270C5E9A04}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,13 +452,14 @@
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,17 +473,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
